--- a/Input/Excel/Parameters_FinalEnergy.xlsx
+++ b/Input/Excel/Parameters_FinalEnergy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TL\Entwicklung\R\GitHub\myRepos\TabulaCharts\Input\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F2DCCB-0F46-4BB5-A0B1-C91F68061A22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E947A36-E6F0-499A-93A9-867B23E9774A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14976" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChartData" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="136">
   <si>
     <t>VarName</t>
   </si>
@@ -425,6 +425,15 @@
   </si>
   <si>
     <t>DF$q_prod_sum_el</t>
+  </si>
+  <si>
+    <t>FinalEnergy.02</t>
+  </si>
+  <si>
+    <t>FinalEnergy.03</t>
+  </si>
+  <si>
+    <t>FinalEnergy.04</t>
   </si>
 </sst>
 </file>
@@ -462,7 +471,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -474,6 +483,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1591,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999E11F1-4A6B-4F19-9DE9-82D2F58C1417}">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1694,6 +1706,9 @@
       <c r="A2" t="s">
         <v>65</v>
       </c>
+      <c r="B2" s="4">
+        <v>45478</v>
+      </c>
       <c r="D2" t="s">
         <v>66</v>
       </c>
@@ -1740,6 +1755,174 @@
         <v>5</v>
       </c>
       <c r="AB2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45541</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3">
+        <v>20</v>
+      </c>
+      <c r="S3">
+        <v>20</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>400</v>
+      </c>
+      <c r="AA3">
+        <v>5</v>
+      </c>
+      <c r="AB3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45541</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4">
+        <v>20</v>
+      </c>
+      <c r="S4">
+        <v>20</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>400</v>
+      </c>
+      <c r="AA4">
+        <v>5</v>
+      </c>
+      <c r="AB4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45541</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5">
+        <v>20</v>
+      </c>
+      <c r="S5">
+        <v>20</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>400</v>
+      </c>
+      <c r="AA5">
+        <v>5</v>
+      </c>
+      <c r="AB5">
         <v>50</v>
       </c>
     </row>

--- a/Input/Excel/Parameters_FinalEnergy.xlsx
+++ b/Input/Excel/Parameters_FinalEnergy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TL\Entwicklung\R\GitHub\myRepos\TabulaCharts\Input\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TL\Entwicklung\R\GitHub\myRepos\TabulaCharts\Input\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E947A36-E6F0-499A-93A9-867B23E9774A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B143FE-C5E4-4610-8A37-11FFD2366813}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14976" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="140">
   <si>
     <t>VarName</t>
   </si>
@@ -434,6 +434,18 @@
   </si>
   <si>
     <t>FinalEnergy.04</t>
+  </si>
+  <si>
+    <t>Label_Short_ENG</t>
+  </si>
+  <si>
+    <t>Label_Short_GER</t>
+  </si>
+  <si>
+    <t>Label_Short_XXX</t>
+  </si>
+  <si>
+    <t>FinalEnergy.05</t>
   </si>
 </sst>
 </file>
@@ -767,13 +779,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC07B2AC-E276-43F5-BD4D-0F03B015AD90}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,12 +794,12 @@
     <col min="2" max="2" width="27.44140625" style="3" customWidth="1"/>
     <col min="3" max="5" width="18.109375" style="3" customWidth="1"/>
     <col min="6" max="9" width="15.77734375" style="3" customWidth="1"/>
-    <col min="10" max="12" width="31.21875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="3"/>
+    <col min="10" max="15" width="31.21875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -824,11 +836,20 @@
       <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
@@ -856,11 +877,20 @@
       <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
@@ -888,11 +918,20 @@
       <c r="L3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
@@ -920,11 +959,20 @@
       <c r="L4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>88</v>
       </c>
@@ -952,11 +1000,20 @@
       <c r="L5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>89</v>
       </c>
@@ -984,11 +1041,20 @@
       <c r="L6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>90</v>
       </c>
@@ -1016,11 +1082,20 @@
       <c r="L7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>91</v>
       </c>
@@ -1048,11 +1123,20 @@
       <c r="L8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>92</v>
       </c>
@@ -1080,11 +1164,20 @@
       <c r="L9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>93</v>
       </c>
@@ -1112,11 +1205,20 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>94</v>
       </c>
@@ -1144,11 +1246,20 @@
       <c r="L11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>95</v>
       </c>
@@ -1176,11 +1287,20 @@
       <c r="L12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>96</v>
       </c>
@@ -1208,11 +1328,20 @@
       <c r="L13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>97</v>
       </c>
@@ -1240,11 +1369,20 @@
       <c r="L14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>98</v>
       </c>
@@ -1272,11 +1410,20 @@
       <c r="L15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>99</v>
       </c>
@@ -1304,11 +1451,20 @@
       <c r="L16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>100</v>
       </c>
@@ -1336,11 +1492,20 @@
       <c r="L17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>101</v>
       </c>
@@ -1368,11 +1533,20 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>102</v>
       </c>
@@ -1400,11 +1574,20 @@
       <c r="L19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>103</v>
       </c>
@@ -1432,11 +1615,20 @@
       <c r="L20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>104</v>
       </c>
@@ -1464,11 +1656,20 @@
       <c r="L21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>105</v>
       </c>
@@ -1496,11 +1697,20 @@
       <c r="L22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>106</v>
       </c>
@@ -1528,11 +1738,20 @@
       <c r="L23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>107</v>
       </c>
@@ -1560,11 +1779,20 @@
       <c r="L24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>108</v>
       </c>
@@ -1592,7 +1820,16 @@
       <c r="L25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1603,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999E11F1-4A6B-4F19-9DE9-82D2F58C1417}">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1926,6 +2163,62 @@
         <v>50</v>
       </c>
     </row>
+    <row r="6" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45541</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6">
+        <v>20</v>
+      </c>
+      <c r="S6">
+        <v>20</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>400</v>
+      </c>
+      <c r="AA6">
+        <v>5</v>
+      </c>
+      <c r="AB6">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
